--- a/05-mayo/3_FENIX/FENIX.xlsx
+++ b/05-mayo/3_FENIX/FENIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\3_FENIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\3_FENIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCD5A1-D43E-456E-8661-2857444B9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C3DA0B-ACAB-4627-BCD3-9F73AA8CAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="19140" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,32 +594,32 @@
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <v>1453406.9</v>
+        <v>1531027</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="6">
         <f>+B7+C7</f>
-        <v>1453406.9</v>
+        <v>1531027</v>
       </c>
       <c r="E7" s="6">
-        <v>238892.38</v>
+        <v>135154.12</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="6">
         <f>+E7+F7</f>
-        <v>238892.38</v>
+        <v>135154.12</v>
       </c>
       <c r="H7" s="6">
         <f>+D7+G7</f>
-        <v>1692299.2799999998</v>
+        <v>1666181.1200000001</v>
       </c>
       <c r="I7" s="6">
         <f>+H7</f>
-        <v>1692299.2799999998</v>
+        <v>1666181.1200000001</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -628,32 +628,32 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>1360441.5</v>
+        <v>2170674.9</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ref="D8:D9" si="0">+B8+C8</f>
-        <v>1360441.5</v>
+        <v>2170674.9</v>
       </c>
       <c r="E8" s="6">
-        <v>225807.18</v>
+        <v>2032187.39</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" ref="G8:G9" si="1">+E8+F8</f>
-        <v>225807.18</v>
+        <v>2032187.39</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H9" si="2">+D8+G8</f>
-        <v>1586248.68</v>
+        <v>4202862.29</v>
       </c>
       <c r="I8" s="6">
         <f>+H8</f>
-        <v>1586248.68</v>
+        <v>4202862.29</v>
       </c>
       <c r="J8" s="6"/>
     </row>
@@ -662,32 +662,32 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>591965.9</v>
+        <v>945329.3</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>591965.9</v>
+        <v>945329.3</v>
       </c>
       <c r="E9" s="6">
-        <v>98137.37</v>
+        <v>884336</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>98137.37</v>
+        <v>884336</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>690103.27</v>
+        <v>1829665.3</v>
       </c>
       <c r="I9" s="6">
         <f>+H9*2</f>
-        <v>1380206.54</v>
+        <v>3659330.6</v>
       </c>
       <c r="J9" s="6"/>
     </row>
@@ -695,7 +695,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="7">
         <f t="shared" ref="B10:I10" si="3">SUM(B7:B9)</f>
-        <v>3405814.3</v>
+        <v>4647031.2</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" ref="C10:H10" si="4">SUM(C7:C9)</f>
@@ -703,11 +703,11 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="4"/>
-        <v>3405814.3</v>
+        <v>4647031.2</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="4"/>
-        <v>562836.92999999993</v>
+        <v>3051677.51</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="4"/>
@@ -715,15 +715,15 @@
       </c>
       <c r="G10" s="11">
         <f t="shared" si="4"/>
-        <v>562836.92999999993</v>
+        <v>3051677.51</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="4"/>
-        <v>3968651.23</v>
+        <v>7698708.71</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="3"/>
-        <v>4658754.5</v>
+        <v>9528374.0099999998</v>
       </c>
       <c r="J10" s="7"/>
     </row>
@@ -783,7 +783,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12">
-        <v>1603626.81</v>
+        <v>67566.78</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -912,14 +912,14 @@
         <v>16</v>
       </c>
       <c r="C23" s="13">
-        <v>48414.43</v>
+        <v>49985.43</v>
       </c>
       <c r="D23" s="13">
-        <v>45821.4</v>
+        <v>48480.43</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="5"/>
-        <v>2593.0299999999988</v>
+        <v>1505</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
